--- a/src/assets/User.xlsx
+++ b/src/assets/User.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>10000000</t>
   </si>
   <si>
-    <t>may@gmail.com</t>
-  </si>
-  <si>
     <t>PyiThu Hluttaw</t>
   </si>
   <si>
@@ -80,19 +77,25 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>PyiDaungSu Hluttaw</t>
-  </si>
-  <si>
-    <t>july</t>
-  </si>
-  <si>
-    <t>july@gmail.com</t>
-  </si>
-  <si>
-    <t>AmyoTha Hluttaw</t>
-  </si>
-  <si>
-    <t>february@gmail.com</t>
+    <t>Constituency</t>
+  </si>
+  <si>
+    <t>ဘိုကလေးမဲဆန္ဒနယ်</t>
+  </si>
+  <si>
+    <t>ဓနုဖြူမဲဆန္ဒနယ်</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>user4@gmail.com</t>
+  </si>
+  <si>
+    <t>user5@gmail.com</t>
+  </si>
+  <si>
+    <t>user6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -158,36 +161,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,7 +465,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +476,8 @@
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -506,81 +500,89 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/assets/User.xlsx
+++ b/src/assets/User.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR Department\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELibrary\WorkSpace\ElibraryAdminPanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>09999999</t>
   </si>
   <si>
-    <t>Representative</t>
-  </si>
-  <si>
     <t>may</t>
   </si>
   <si>
@@ -65,44 +62,50 @@
     <t>PyiThu Hluttaw</t>
   </si>
   <si>
-    <t>Senior</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
-    <t>Junior</t>
-  </si>
-  <si>
     <t>Staff</t>
   </si>
   <si>
     <t>Constituency</t>
   </si>
   <si>
-    <t>ဘိုကလေးမဲဆန္ဒနယ်</t>
-  </si>
-  <si>
-    <t>ဓနုဖြူမဲဆန္ဒနယ်</t>
-  </si>
-  <si>
     <t>september</t>
   </si>
   <si>
-    <t>user4@gmail.com</t>
-  </si>
-  <si>
-    <t>user5@gmail.com</t>
-  </si>
-  <si>
-    <t>user6@gmail.com</t>
+    <t>PyiDaungSu Hluttaw</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Staff Officer</t>
+  </si>
+  <si>
+    <t>ဘိုကလေးမဲဆန္ဒနယ်(ဘိုကလေး)</t>
+  </si>
+  <si>
+    <t>AmyoTha Hluttaw</t>
+  </si>
+  <si>
+    <t>မဲဆန္ဒနယ်အမှတ်(၃)</t>
+  </si>
+  <si>
+    <t>user7@gmail.com</t>
+  </si>
+  <si>
+    <t>user8@gmail.com</t>
+  </si>
+  <si>
+    <t>user9@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,10 +122,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,23 +179,21 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,123 +478,123 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
